--- a/文档/一周工作郑晓光.xlsx
+++ b/文档/一周工作郑晓光.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,6 +225,18 @@
   </si>
   <si>
     <t>熟悉商家地图的需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改户型地图的bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改户型地图的bug，熟悉商家地图功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家地图个人中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -834,6 +846,51 @@
         <v>6</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3">
+        <v>43675</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3">
+        <v>43675</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3">
+        <v>43676</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3">
+        <v>43676</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3">
+        <v>43677</v>
+      </c>
+      <c r="D17" s="3">
+        <v>43677</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/一周工作郑晓光.xlsx
+++ b/文档/一周工作郑晓光.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,207 +36,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对接获取消息列表接口</t>
-  </si>
-  <si>
-    <r>
-      <t>对接收藏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>取消收藏接口</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>接口</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>设置我家接口</t>
-    </r>
-  </si>
-  <si>
-    <t>修改户型地图bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搭建商家地图的开发环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商家地图需求确认会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联调获取消息列表接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>联调收藏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>取消收藏接口</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对接</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>获取户型收藏列表接口</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>联调</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>获取户型列表接口</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>联调</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对接预下载接口</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟悉商家地图的需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改户型地图的bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改户型地图的bug，熟悉商家地图功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商家地图个人中心</t>
+    <t>修改户型地图的验证码倒计时保留等bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家地图个人中心功能迁移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户型地图上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家地图账号设置功能迁移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户型地图上线后遗留问题处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改户型地图的密码，验证码校验等bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家地图商家收藏页面前端页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -244,7 +68,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,19 +91,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -301,12 +112,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -612,15 +420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.125" customWidth="1"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
   </cols>
@@ -642,253 +450,123 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3">
-        <v>43668</v>
-      </c>
-      <c r="C2">
-        <v>1.5</v>
-      </c>
-      <c r="D2" s="3">
-        <v>43668</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
-        <v>43668</v>
+      <c r="B3" s="2">
+        <v>43675</v>
       </c>
       <c r="C3">
-        <v>1.5</v>
-      </c>
-      <c r="D3" s="3">
-        <v>43668</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43675</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3">
-        <v>43668</v>
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43676</v>
       </c>
       <c r="C4">
-        <v>1.5</v>
-      </c>
-      <c r="D4" s="3">
-        <v>43668</v>
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43676</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
-        <v>43668</v>
+      <c r="B5" s="2">
+        <v>43676</v>
       </c>
       <c r="C5">
-        <v>1.5</v>
-      </c>
-      <c r="D5" s="3">
-        <v>43668</v>
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43676</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3">
-        <v>43668</v>
+      <c r="B6" s="2">
+        <v>43677</v>
       </c>
       <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3">
-        <v>43668</v>
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43677</v>
       </c>
       <c r="E6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3">
-        <v>43669</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43678</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3">
-        <v>43669</v>
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43678</v>
       </c>
       <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3">
-        <v>43669</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43678</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>43669</v>
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43678</v>
       </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3">
-        <v>43669</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43679</v>
       </c>
       <c r="C9">
-        <v>5.5</v>
-      </c>
-      <c r="D9" s="3">
-        <v>43669</v>
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>43679</v>
       </c>
       <c r="E9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3">
-        <v>43670</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3">
-        <v>43670</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>43670</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3">
-        <v>43670</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3">
-        <v>43671</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12" s="3">
-        <v>43671</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3">
-        <v>43672</v>
-      </c>
-      <c r="C13">
         <v>6</v>
-      </c>
-      <c r="D13" s="3">
-        <v>43672</v>
-      </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="3">
-        <v>43675</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3">
-        <v>43675</v>
-      </c>
-      <c r="E15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="3">
-        <v>43676</v>
-      </c>
-      <c r="C16">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3">
-        <v>43676</v>
-      </c>
-      <c r="E16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="3">
-        <v>43677</v>
-      </c>
-      <c r="D17" s="3">
-        <v>43677</v>
       </c>
     </row>
   </sheetData>

--- a/文档/一周工作郑晓光.xlsx
+++ b/文档/一周工作郑晓光.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,31 +36,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改户型地图的验证码倒计时保留等bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商家地图个人中心功能迁移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>户型地图上线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商家地图账号设置功能迁移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>户型地图上线后遗留问题处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改户型地图的密码，验证码校验等bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商家地图商家收藏页面前端页面</t>
+    <t>商家地图获取收藏商家列表对接、联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家地图取消收藏接口对接、调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家地图修改底部下载app组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家地图个人中心添加备案信息组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家地图收藏列表添加加载状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家地图提测前自测，完善代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家地图刷新时保存所选分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家地图获取商家分类接口对接、调试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A10" sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -450,18 +454,35 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2">
+        <v>43682</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43682</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>43675</v>
+        <v>43683</v>
       </c>
       <c r="C3">
         <v>8</v>
       </c>
       <c r="D3" s="2">
-        <v>43675</v>
+        <v>43683</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -469,16 +490,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>43676</v>
+        <v>43684</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4" s="2">
-        <v>43676</v>
+        <v>43684</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -486,16 +507,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>43676</v>
+        <v>43685</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>43676</v>
+        <v>43685</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -503,19 +524,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>43677</v>
+        <v>43685</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2">
-        <v>43677</v>
+        <v>43685</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -523,51 +544,56 @@
         <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>43678</v>
+        <v>43686</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2">
-        <v>43678</v>
+        <v>43686</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>43678</v>
+        <v>43686</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" s="2">
-        <v>43678</v>
+        <v>43686</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
+      <c r="A9" t="s">
+        <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>43679</v>
+        <v>43686</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2">
-        <v>43679</v>
+        <v>43686</v>
       </c>
       <c r="E9">
-        <v>6</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
